--- a/src/main/resources/download/exportCompositeOriginal.xlsx
+++ b/src/main/resources/download/exportCompositeOriginal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="11064" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="复合材料" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Name</t>
+    <t>名称Name</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -26,87 +26,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Mat_ID</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Thickness</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>NU12</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G1Z</t>
-  </si>
-  <si>
-    <t>G2Z</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Plane_Type</t>
-  </si>
-  <si>
-    <t>名称Name</t>
-  </si>
-  <si>
-    <t>材料卡编号ID</t>
-  </si>
-  <si>
-    <t>温度T</t>
-  </si>
-  <si>
-    <t>厚度t</t>
-  </si>
-  <si>
-    <t>弹性模量E1</t>
-  </si>
-  <si>
-    <t>弹性模量E2</t>
-  </si>
-  <si>
-    <t>泊松比NU12</t>
-  </si>
-  <si>
-    <t>剪切模量G12</t>
-  </si>
-  <si>
-    <t>剪切模量G1Z</t>
-  </si>
-  <si>
-    <t>剪切模量G2Z</t>
-  </si>
-  <si>
-    <t>密度RHO</t>
-  </si>
-  <si>
-    <t>热膨胀系数A</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>适用机型</t>
   </si>
 </sst>
 </file>
@@ -129,30 +48,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,16 +138,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,52 +160,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,11 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,21 +197,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,19 +207,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +363,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,8 +404,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,15 +421,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,9 +472,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +503,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,20 +971,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" spans="1:17">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,98 +997,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
